--- a/Seminário 1 - CMSE/energia_armazenada.xlsx
+++ b/Seminário 1 - CMSE/energia_armazenada.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/06eb512eaad66502/Área de Trabalho/SEMINÁRIO ATAS CMSE/Seminário 1 - CMSE/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f464b536d712b41b/Engenharia Elétrica/Mestrado/01 - Disciplinas/2023.1/Planejamento Energético/Seminário 1 - CMSE/Gestao_energetica_trabalhos/Seminário 1 - CMSE/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="29" documentId="11_6A69D6BF872056E19CF3FC914A77F83775FFEA30" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{711C1181-576B-4676-B461-47DA81FAA5C5}"/>
+  <xr:revisionPtr revIDLastSave="31" documentId="11_6A69D6BF872056E19CF3FC914A77F83775FFEA30" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{666BCF61-A3EB-4E7F-984C-22CB47EACD3C}"/>
   <bookViews>
-    <workbookView xWindow="-16320" yWindow="-7020" windowWidth="16440" windowHeight="28440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -95,7 +95,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -113,6 +113,1970 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SD/CO</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$39</c:f>
+              <c:numCache>
+                <c:formatCode>yyyy\-mm\-dd\ hh:mm:ss</c:formatCode>
+                <c:ptCount val="38"/>
+                <c:pt idx="0">
+                  <c:v>43838</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43866</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43894</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>43922</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>43957</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>43985</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>44013</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>44048</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>44076</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>44111</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>44120</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>44151</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>44139</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>44162</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>44172</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>44230</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>44292</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>44343</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>44202</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>44256</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>44321</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>44348</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>44384</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>44412</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>44442</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>44474</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>44503</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>44573</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>44594</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>44713</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>44748</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>44776</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>44812</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>44874</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>44902</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>44256</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>44657</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>44685</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$B$39</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="38"/>
+                <c:pt idx="0">
+                  <c:v>20.100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>24.7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>51.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>54.7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>55.1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>53.2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>48.2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>42.3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>27.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>20.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>23.7</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>18.899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>17.7</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>23.2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>35.299999999999997</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>32.5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>34.200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>34.700000000000003</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>32.200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>29.1</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>25.97</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>21.3</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>12.8</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>18.2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>25.6</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>41.7</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>66.400000000000006</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>65.5</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>61.5</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>49.5</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>46.5</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>29.7</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>64.5</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>66.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-FDA8-428E-BC27-309D767F0599}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>S</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$39</c:f>
+              <c:numCache>
+                <c:formatCode>yyyy\-mm\-dd\ hh:mm:ss</c:formatCode>
+                <c:ptCount val="38"/>
+                <c:pt idx="0">
+                  <c:v>43838</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43866</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43894</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>43922</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>43957</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>43985</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>44013</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>44048</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>44076</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>44111</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>44120</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>44151</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>44139</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>44162</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>44172</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>44230</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>44292</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>44343</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>44202</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>44256</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>44321</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>44348</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>44384</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>44412</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>44442</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>44474</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>44503</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>44573</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>44594</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>44713</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>44748</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>44776</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>44812</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>44874</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>44902</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>44256</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>44657</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>44685</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$2:$C$39</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="38"/>
+                <c:pt idx="0">
+                  <c:v>29.9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>23.8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>17.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14.7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>17.399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>36.4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>58.4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>41.2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>30.8</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>21.1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>24.1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>18.8</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>18.3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>52.8</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>61.6</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>55.5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>57.6</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>56.4</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>57.2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>64.2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>47.87</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>27.6</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>49.8</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>42.8</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>35.4</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>90.3</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>94.9</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>75.099999999999994</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>86.1</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>91.5</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>78.3</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>63.7</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>47.8</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>67.099999999999994</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-FDA8-428E-BC27-309D767F0599}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ND</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$39</c:f>
+              <c:numCache>
+                <c:formatCode>yyyy\-mm\-dd\ hh:mm:ss</c:formatCode>
+                <c:ptCount val="38"/>
+                <c:pt idx="0">
+                  <c:v>43838</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43866</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43894</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>43922</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>43957</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>43985</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>44013</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>44048</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>44076</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>44111</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>44120</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>44151</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>44139</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>44162</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>44172</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>44230</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>44292</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>44343</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>44202</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>44256</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>44321</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>44348</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>44384</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>44412</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>44442</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>44474</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>44503</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>44573</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>44594</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>44713</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>44748</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>44776</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>44812</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>44874</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>44902</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>44256</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>44657</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>44685</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$2:$D$39</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="38"/>
+                <c:pt idx="0">
+                  <c:v>37.9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>60.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>79.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>89.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>91.9</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>81.900000000000006</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>75.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>65.900000000000006</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>60.6</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>54.1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>56.3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>52.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>52.2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>52.2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>68.5</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>64.2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>50.8</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>69.099999999999994</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>66.8</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>63.6</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>59.2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>54.81</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>49.2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>28.9</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>36.4</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>52.3</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>73.3</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>94.3</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>91.3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>82.8</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>73.099999999999994</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>60.3</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>58.5</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>96.6</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>96.1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-FDA8-428E-BC27-309D767F0599}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>N</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$39</c:f>
+              <c:numCache>
+                <c:formatCode>yyyy\-mm\-dd\ hh:mm:ss</c:formatCode>
+                <c:ptCount val="38"/>
+                <c:pt idx="0">
+                  <c:v>43838</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43866</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43894</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>43922</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>43957</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>43985</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>44013</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>44048</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>44076</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>44111</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>44120</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>44151</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>44139</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>44162</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>44172</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>44230</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>44292</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>44343</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>44202</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>44256</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>44321</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>44348</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>44384</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>44412</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>44442</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>44474</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>44503</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>44573</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>44594</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>44713</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>44748</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>44776</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>44812</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>44874</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>44902</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>44256</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>44657</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>44685</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$2:$E$39</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="38"/>
+                <c:pt idx="0">
+                  <c:v>15.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>21.6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>71.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>83.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>83.3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80.3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>50.1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>38.4</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>28.1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>28.9</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>28.9</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>31.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>77.900000000000006</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>84.4</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>24.1</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>73.400000000000006</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>82.8</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>84.5</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>82.8</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>70.3</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>44.6</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>46.4</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>54.7</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>89.1</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>98.9</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>96.4</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>89.2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>84.9</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>57.9</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>51.7</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>52.7</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>98.6</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>99</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-FDA8-428E-BC27-309D767F0599}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="509348144"/>
+        <c:axId val="1085324224"/>
+      </c:lineChart>
+      <c:dateAx>
+        <c:axId val="509348144"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="yyyy\-mm\-dd\ hh:mm:ss" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1085324224"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="days"/>
+      </c:dateAx>
+      <c:valAx>
+        <c:axId val="1085324224"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="509348144"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>247649</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F0DC06BE-ADAF-8612-B15D-0A6A8D27348A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -402,8 +2366,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection sqref="A1:E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1073,5 +3037,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>